--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il11</t>
+  </si>
+  <si>
+    <t>Il11ra1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il11</t>
-  </si>
-  <si>
-    <t>Il11ra1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.06162</v>
+        <v>0.4407625</v>
       </c>
       <c r="H2">
-        <v>0.12324</v>
+        <v>0.881525</v>
       </c>
       <c r="I2">
-        <v>0.009272539064069453</v>
+        <v>0.04182603576563167</v>
       </c>
       <c r="J2">
-        <v>0.007170225064428173</v>
+        <v>0.03589637151931125</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.1703235</v>
+        <v>3.482341</v>
       </c>
       <c r="N2">
-        <v>6.340647000000001</v>
+        <v>6.964682</v>
       </c>
       <c r="O2">
-        <v>0.07487434910048793</v>
+        <v>0.08584057246094734</v>
       </c>
       <c r="P2">
-        <v>0.05219457779685494</v>
+        <v>0.06058364433270062</v>
       </c>
       <c r="Q2">
-        <v>0.19535533407</v>
+        <v>1.5348853250125</v>
       </c>
       <c r="R2">
-        <v>0.7814213362800001</v>
+        <v>6.139541300049999</v>
       </c>
       <c r="S2">
-        <v>0.0006942753269310478</v>
+        <v>0.00359037085389388</v>
       </c>
       <c r="T2">
-        <v>0.0003742468699462554</v>
+        <v>0.002174733004960437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.06162</v>
+        <v>0.4407625</v>
       </c>
       <c r="H3">
-        <v>0.12324</v>
+        <v>0.881525</v>
       </c>
       <c r="I3">
-        <v>0.009272539064069453</v>
+        <v>0.04182603576563167</v>
       </c>
       <c r="J3">
-        <v>0.007170225064428173</v>
+        <v>0.03589637151931125</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>74.026977</v>
       </c>
       <c r="O3">
-        <v>0.5827714131540824</v>
+        <v>0.6082611365202681</v>
       </c>
       <c r="P3">
-        <v>0.6093710641977846</v>
+        <v>0.6439380930232004</v>
       </c>
       <c r="Q3">
-        <v>1.52051410758</v>
+        <v>10.8761051499875</v>
       </c>
       <c r="R3">
-        <v>9.123084645480001</v>
+        <v>65.256630899925</v>
       </c>
       <c r="S3">
-        <v>0.005403770693894188</v>
+        <v>0.0254411520509405</v>
       </c>
       <c r="T3">
-        <v>0.004369327678048224</v>
+        <v>0.02311504102259761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.06162</v>
+        <v>0.4407625</v>
       </c>
       <c r="H4">
-        <v>0.12324</v>
+        <v>0.881525</v>
       </c>
       <c r="I4">
-        <v>0.009272539064069453</v>
+        <v>0.04182603576563167</v>
       </c>
       <c r="J4">
-        <v>0.007170225064428173</v>
+        <v>0.03589637151931125</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.484750333333333</v>
+        <v>3.075112666666667</v>
       </c>
       <c r="N4">
-        <v>10.454251</v>
+        <v>9.225338000000001</v>
       </c>
       <c r="O4">
-        <v>0.08230024885032761</v>
+        <v>0.07580229267856796</v>
       </c>
       <c r="P4">
-        <v>0.08605670953253641</v>
+        <v>0.08024840132556629</v>
       </c>
       <c r="Q4">
-        <v>0.21473031554</v>
+        <v>1.355394346741667</v>
       </c>
       <c r="R4">
-        <v>1.28838189324</v>
+        <v>8.132366080450002</v>
       </c>
       <c r="S4">
-        <v>0.0007631322724472998</v>
+        <v>0.003170509404690663</v>
       </c>
       <c r="T4">
-        <v>0.0006170459756524075</v>
+        <v>0.002880626427813317</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.06162</v>
+        <v>0.4407625</v>
       </c>
       <c r="H5">
-        <v>0.12324</v>
+        <v>0.881525</v>
       </c>
       <c r="I5">
-        <v>0.009272539064069453</v>
+        <v>0.04182603576563167</v>
       </c>
       <c r="J5">
-        <v>0.007170225064428173</v>
+        <v>0.03589637151931125</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.3744765</v>
+        <v>3.260511</v>
       </c>
       <c r="N5">
-        <v>4.748953</v>
+        <v>6.521022</v>
       </c>
       <c r="O5">
-        <v>0.05607862490749121</v>
+        <v>0.0803724077438757</v>
       </c>
       <c r="P5">
-        <v>0.03909216154315287</v>
+        <v>0.05672438131902018</v>
       </c>
       <c r="Q5">
-        <v>0.14631524193</v>
+        <v>1.4371109796375</v>
       </c>
       <c r="R5">
-        <v>0.58526096772</v>
+        <v>5.74844391855</v>
       </c>
       <c r="S5">
-        <v>0.0005199912401140104</v>
+        <v>0.003361659200865277</v>
       </c>
       <c r="T5">
-        <v>0.0002802995965193898</v>
+        <v>0.002036199466030627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.06162</v>
+        <v>0.4407625</v>
       </c>
       <c r="H6">
-        <v>0.12324</v>
+        <v>0.881525</v>
       </c>
       <c r="I6">
-        <v>0.009272539064069453</v>
+        <v>0.04182603576563167</v>
       </c>
       <c r="J6">
-        <v>0.007170225064428173</v>
+        <v>0.03589637151931125</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.786997</v>
+        <v>3.114522666666666</v>
       </c>
       <c r="N6">
-        <v>8.360990999999999</v>
+        <v>9.343567999999999</v>
       </c>
       <c r="O6">
-        <v>0.06582122812388468</v>
+        <v>0.07677375898835379</v>
       </c>
       <c r="P6">
-        <v>0.06882553077127679</v>
+        <v>0.08127684803274619</v>
       </c>
       <c r="Q6">
-        <v>0.17173475514</v>
+        <v>1.372764796866667</v>
       </c>
       <c r="R6">
-        <v>1.03040853084</v>
+        <v>8.2365887812</v>
       </c>
       <c r="S6">
-        <v>0.0006103299090237475</v>
+        <v>0.003211141989308871</v>
       </c>
       <c r="T6">
-        <v>0.0004934945458087812</v>
+        <v>0.002917543932902059</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.06162</v>
+        <v>0.4407625</v>
       </c>
       <c r="H7">
-        <v>0.12324</v>
+        <v>0.881525</v>
       </c>
       <c r="I7">
-        <v>0.009272539064069453</v>
+        <v>0.04182603576563167</v>
       </c>
       <c r="J7">
-        <v>0.007170225064428173</v>
+        <v>0.03589637151931125</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.849711</v>
+        <v>2.959395333333333</v>
       </c>
       <c r="N7">
-        <v>17.549133</v>
+        <v>8.878185999999999</v>
       </c>
       <c r="O7">
-        <v>0.1381541358637263</v>
+        <v>0.0729498316079871</v>
       </c>
       <c r="P7">
-        <v>0.1444599561583943</v>
+        <v>0.07722863196676633</v>
       </c>
       <c r="Q7">
-        <v>0.36045919182</v>
+        <v>1.304390485608333</v>
       </c>
       <c r="R7">
-        <v>2.16275515092</v>
+        <v>7.82634291365</v>
       </c>
       <c r="S7">
-        <v>0.001281039621659161</v>
+        <v>0.003051202265932476</v>
       </c>
       <c r="T7">
-        <v>0.001035810398453114</v>
+        <v>0.002772227665007201</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>10.14401</v>
       </c>
       <c r="I8">
-        <v>0.5088214269788551</v>
+        <v>0.3208710095701012</v>
       </c>
       <c r="J8">
-        <v>0.5901885325852809</v>
+        <v>0.4130718376173206</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.1703235</v>
+        <v>3.482341</v>
       </c>
       <c r="N8">
-        <v>6.340647000000001</v>
+        <v>6.964682</v>
       </c>
       <c r="O8">
-        <v>0.07487434910048793</v>
+        <v>0.08584057246094734</v>
       </c>
       <c r="P8">
-        <v>0.05219457779685494</v>
+        <v>0.06058364433270062</v>
       </c>
       <c r="Q8">
-        <v>10.719931095745</v>
+        <v>11.77496730913666</v>
       </c>
       <c r="R8">
-        <v>64.31958657447001</v>
+        <v>70.64980385481999</v>
       </c>
       <c r="S8">
-        <v>0.03809767315342322</v>
+        <v>0.0275437511476196</v>
       </c>
       <c r="T8">
-        <v>0.0308046412788341</v>
+        <v>0.02502539729406282</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>10.14401</v>
       </c>
       <c r="I9">
-        <v>0.5088214269788551</v>
+        <v>0.3208710095701012</v>
       </c>
       <c r="J9">
-        <v>0.5901885325852809</v>
+        <v>0.4130718376173206</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>74.026977</v>
       </c>
       <c r="O9">
-        <v>0.5827714131540824</v>
+        <v>0.6082611365202681</v>
       </c>
       <c r="P9">
-        <v>0.6093710641977846</v>
+        <v>0.6439380930232004</v>
       </c>
       <c r="Q9">
         <v>83.43671055086332</v>
@@ -1013,10 +1013,10 @@
         <v>750.93039495777</v>
       </c>
       <c r="S9">
-        <v>0.2965265820435442</v>
+        <v>0.1951733649575156</v>
       </c>
       <c r="T9">
-        <v>0.3596438141788215</v>
+        <v>0.2659926913968865</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>10.14401</v>
       </c>
       <c r="I10">
-        <v>0.5088214269788551</v>
+        <v>0.3208710095701012</v>
       </c>
       <c r="J10">
-        <v>0.5901885325852809</v>
+        <v>0.4130718376173206</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.484750333333333</v>
+        <v>3.075112666666667</v>
       </c>
       <c r="N10">
-        <v>10.454251</v>
+        <v>9.225338000000001</v>
       </c>
       <c r="O10">
-        <v>0.08230024885032761</v>
+        <v>0.07580229267856796</v>
       </c>
       <c r="P10">
-        <v>0.08605670953253641</v>
+        <v>0.08024840132556629</v>
       </c>
       <c r="Q10">
-        <v>11.78311407627889</v>
+        <v>10.39799121393111</v>
       </c>
       <c r="R10">
-        <v>106.04802668651</v>
+        <v>93.58192092538</v>
       </c>
       <c r="S10">
-        <v>0.04187613006073857</v>
+        <v>0.02432275817950039</v>
       </c>
       <c r="T10">
-        <v>0.05078968311812542</v>
+        <v>0.0331483546014039</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>10.14401</v>
       </c>
       <c r="I11">
-        <v>0.5088214269788551</v>
+        <v>0.3208710095701012</v>
       </c>
       <c r="J11">
-        <v>0.5901885325852809</v>
+        <v>0.4130718376173206</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.3744765</v>
+        <v>3.260511</v>
       </c>
       <c r="N11">
-        <v>4.748953</v>
+        <v>6.521022</v>
       </c>
       <c r="O11">
-        <v>0.05607862490749121</v>
+        <v>0.0803724077438757</v>
       </c>
       <c r="P11">
-        <v>0.03909216154315287</v>
+        <v>0.05672438131902018</v>
       </c>
       <c r="Q11">
-        <v>8.028904453588334</v>
+        <v>11.02488539637</v>
       </c>
       <c r="R11">
-        <v>48.17342672153</v>
+        <v>66.14931237822</v>
       </c>
       <c r="S11">
-        <v>0.02853400594844164</v>
+        <v>0.02578917561435722</v>
       </c>
       <c r="T11">
-        <v>0.02307174545674014</v>
+        <v>0.02343124442915328</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>10.14401</v>
       </c>
       <c r="I12">
-        <v>0.5088214269788551</v>
+        <v>0.3208710095701012</v>
       </c>
       <c r="J12">
-        <v>0.5901885325852809</v>
+        <v>0.4130718376173206</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.786997</v>
+        <v>3.114522666666666</v>
       </c>
       <c r="N12">
-        <v>8.360990999999999</v>
+        <v>9.343567999999999</v>
       </c>
       <c r="O12">
-        <v>0.06582122812388468</v>
+        <v>0.07677375898835379</v>
       </c>
       <c r="P12">
-        <v>0.06882553077127679</v>
+        <v>0.08127684803274619</v>
       </c>
       <c r="Q12">
-        <v>9.423775145989998</v>
+        <v>10.53124969196444</v>
       </c>
       <c r="R12">
-        <v>84.81397631390999</v>
+        <v>94.78124722768</v>
       </c>
       <c r="S12">
-        <v>0.03349125121949575</v>
+        <v>0.02463447355508471</v>
       </c>
       <c r="T12">
-        <v>0.04062003901030294</v>
+        <v>0.03357317697263017</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>10.14401</v>
       </c>
       <c r="I13">
-        <v>0.5088214269788551</v>
+        <v>0.3208710095701012</v>
       </c>
       <c r="J13">
-        <v>0.5901885325852809</v>
+        <v>0.4130718376173206</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.849711</v>
+        <v>2.959395333333333</v>
       </c>
       <c r="N13">
-        <v>17.549133</v>
+        <v>8.878185999999999</v>
       </c>
       <c r="O13">
-        <v>0.1381541358637263</v>
+        <v>0.0729498316079871</v>
       </c>
       <c r="P13">
-        <v>0.1444599561583943</v>
+        <v>0.07722863196676633</v>
       </c>
       <c r="Q13">
-        <v>19.77984229370333</v>
+        <v>10.00671195176222</v>
       </c>
       <c r="R13">
-        <v>178.01858064333</v>
+        <v>90.06040756585999</v>
       </c>
       <c r="S13">
-        <v>0.07029578455321184</v>
+        <v>0.0234074861160237</v>
       </c>
       <c r="T13">
-        <v>0.08525860954245675</v>
+        <v>0.03190097292318391</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2.686922</v>
+        <v>6.6157225</v>
       </c>
       <c r="H14">
-        <v>5.373844</v>
+        <v>13.231445</v>
       </c>
       <c r="I14">
-        <v>0.4043263422120679</v>
+        <v>0.6277971603766068</v>
       </c>
       <c r="J14">
-        <v>0.3126555577825945</v>
+        <v>0.5387945497374814</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.1703235</v>
+        <v>3.482341</v>
       </c>
       <c r="N14">
-        <v>6.340647000000001</v>
+        <v>6.964682</v>
       </c>
       <c r="O14">
-        <v>0.07487434910048793</v>
+        <v>0.08584057246094734</v>
       </c>
       <c r="P14">
-        <v>0.05219457779685494</v>
+        <v>0.06058364433270062</v>
       </c>
       <c r="Q14">
-        <v>8.518411959267</v>
+        <v>23.0382017063725</v>
       </c>
       <c r="R14">
-        <v>34.073647837068</v>
+        <v>92.15280682549</v>
       </c>
       <c r="S14">
-        <v>0.03027367169730972</v>
+        <v>0.0538904676360851</v>
       </c>
       <c r="T14">
-        <v>0.0163189248343027</v>
+        <v>0.03264213736969315</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2.686922</v>
+        <v>6.6157225</v>
       </c>
       <c r="H15">
-        <v>5.373844</v>
+        <v>13.231445</v>
       </c>
       <c r="I15">
-        <v>0.4043263422120679</v>
+        <v>0.6277971603766068</v>
       </c>
       <c r="J15">
-        <v>0.3126555577825945</v>
+        <v>0.5387945497374814</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>74.026977</v>
       </c>
       <c r="O15">
-        <v>0.5827714131540824</v>
+        <v>0.6082611365202681</v>
       </c>
       <c r="P15">
-        <v>0.6093710641977846</v>
+        <v>0.6439380930232004</v>
       </c>
       <c r="Q15">
-        <v>66.301571031598</v>
+        <v>163.2473124486275</v>
       </c>
       <c r="R15">
-        <v>397.809426189588</v>
+        <v>979.4838746917651</v>
       </c>
       <c r="S15">
-        <v>0.2356298338263479</v>
+        <v>0.3818646142748719</v>
       </c>
       <c r="T15">
-        <v>0.1905232499733316</v>
+        <v>0.3469503348892476</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>2.686922</v>
+        <v>6.6157225</v>
       </c>
       <c r="H16">
-        <v>5.373844</v>
+        <v>13.231445</v>
       </c>
       <c r="I16">
-        <v>0.4043263422120679</v>
+        <v>0.6277971603766068</v>
       </c>
       <c r="J16">
-        <v>0.3126555577825945</v>
+        <v>0.5387945497374814</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.484750333333333</v>
+        <v>3.075112666666667</v>
       </c>
       <c r="N16">
-        <v>10.454251</v>
+        <v>9.225338000000001</v>
       </c>
       <c r="O16">
-        <v>0.08230024885032761</v>
+        <v>0.07580229267856796</v>
       </c>
       <c r="P16">
-        <v>0.08605670953253641</v>
+        <v>0.08024840132556629</v>
       </c>
       <c r="Q16">
-        <v>9.363252335140666</v>
+        <v>20.34409205890167</v>
       </c>
       <c r="R16">
-        <v>56.179514010844</v>
+        <v>122.06455235341</v>
       </c>
       <c r="S16">
-        <v>0.0332761585807959</v>
+        <v>0.04758846409364142</v>
       </c>
       <c r="T16">
-        <v>0.02690610851982989</v>
+        <v>0.0432374012593612</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>2.686922</v>
+        <v>6.6157225</v>
       </c>
       <c r="H17">
-        <v>5.373844</v>
+        <v>13.231445</v>
       </c>
       <c r="I17">
-        <v>0.4043263422120679</v>
+        <v>0.6277971603766068</v>
       </c>
       <c r="J17">
-        <v>0.3126555577825945</v>
+        <v>0.5387945497374814</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.3744765</v>
+        <v>3.260511</v>
       </c>
       <c r="N17">
-        <v>4.748953</v>
+        <v>6.521022</v>
       </c>
       <c r="O17">
-        <v>0.05607862490749121</v>
+        <v>0.0803724077438757</v>
       </c>
       <c r="P17">
-        <v>0.03909216154315287</v>
+        <v>0.05672438131902018</v>
       </c>
       <c r="Q17">
-        <v>6.380033146333</v>
+        <v>21.5706359841975</v>
       </c>
       <c r="R17">
-        <v>25.520132585332</v>
+        <v>86.28254393679001</v>
       </c>
       <c r="S17">
-        <v>0.02267406528512848</v>
+        <v>0.05045756935423597</v>
       </c>
       <c r="T17">
-        <v>0.01222238157220175</v>
+        <v>0.03056278749191868</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>2.686922</v>
+        <v>6.6157225</v>
       </c>
       <c r="H18">
-        <v>5.373844</v>
+        <v>13.231445</v>
       </c>
       <c r="I18">
-        <v>0.4043263422120679</v>
+        <v>0.6277971603766068</v>
       </c>
       <c r="J18">
-        <v>0.3126555577825945</v>
+        <v>0.5387945497374814</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.786997</v>
+        <v>3.114522666666666</v>
       </c>
       <c r="N18">
-        <v>8.360990999999999</v>
+        <v>9.343567999999999</v>
       </c>
       <c r="O18">
-        <v>0.06582122812388468</v>
+        <v>0.07677375898835379</v>
       </c>
       <c r="P18">
-        <v>0.06882553077127679</v>
+        <v>0.08127684803274619</v>
       </c>
       <c r="Q18">
-        <v>7.488443553233998</v>
+        <v>20.60481768262667</v>
       </c>
       <c r="R18">
-        <v>44.930661319404</v>
+        <v>123.62890609576</v>
       </c>
       <c r="S18">
-        <v>0.02661325640723638</v>
+        <v>0.0481983478843265</v>
       </c>
       <c r="T18">
-        <v>0.02151868471297667</v>
+        <v>0.04379152273988519</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2.686922</v>
+        <v>6.6157225</v>
       </c>
       <c r="H19">
-        <v>5.373844</v>
+        <v>13.231445</v>
       </c>
       <c r="I19">
-        <v>0.4043263422120679</v>
+        <v>0.6277971603766068</v>
       </c>
       <c r="J19">
-        <v>0.3126555577825945</v>
+        <v>0.5387945497374814</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.849711</v>
+        <v>2.959395333333333</v>
       </c>
       <c r="N19">
-        <v>17.549133</v>
+        <v>8.878185999999999</v>
       </c>
       <c r="O19">
-        <v>0.1381541358637263</v>
+        <v>0.0729498316079871</v>
       </c>
       <c r="P19">
-        <v>0.1444599561583943</v>
+        <v>0.07722863196676633</v>
       </c>
       <c r="Q19">
-        <v>15.717717179542</v>
+        <v>19.57853829312833</v>
       </c>
       <c r="R19">
-        <v>94.30630307725201</v>
+        <v>117.47122975877</v>
       </c>
       <c r="S19">
-        <v>0.05585935641524951</v>
+        <v>0.04579769713344594</v>
       </c>
       <c r="T19">
-        <v>0.04516620816995192</v>
+        <v>0.04161036598737552</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.320074</v>
+        <v>0.100172</v>
       </c>
       <c r="H20">
-        <v>0.960222</v>
+        <v>0.300516</v>
       </c>
       <c r="I20">
-        <v>0.04816453535204424</v>
+        <v>0.00950579428766026</v>
       </c>
       <c r="J20">
-        <v>0.05586666546425956</v>
+        <v>0.01223724112588678</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.1703235</v>
+        <v>3.482341</v>
       </c>
       <c r="N20">
-        <v>6.340647000000001</v>
+        <v>6.964682</v>
       </c>
       <c r="O20">
-        <v>0.07487434910048793</v>
+        <v>0.08584057246094734</v>
       </c>
       <c r="P20">
-        <v>0.05219457779685494</v>
+        <v>0.06058364433270062</v>
       </c>
       <c r="Q20">
-        <v>1.014738123939</v>
+        <v>0.348833062652</v>
       </c>
       <c r="R20">
-        <v>6.088428743634001</v>
+        <v>2.092998375912</v>
       </c>
       <c r="S20">
-        <v>0.003606288234211753</v>
+        <v>0.0008159828233487599</v>
       </c>
       <c r="T20">
-        <v>0.002915937016825164</v>
+        <v>0.0007413766639842214</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.320074</v>
+        <v>0.100172</v>
       </c>
       <c r="H21">
-        <v>0.960222</v>
+        <v>0.300516</v>
       </c>
       <c r="I21">
-        <v>0.04816453535204424</v>
+        <v>0.00950579428766026</v>
       </c>
       <c r="J21">
-        <v>0.05586666546425956</v>
+        <v>0.01223724112588678</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>74.026977</v>
       </c>
       <c r="O21">
-        <v>0.5827714131540824</v>
+        <v>0.6082611365202681</v>
       </c>
       <c r="P21">
-        <v>0.6093710641977846</v>
+        <v>0.6439380930232004</v>
       </c>
       <c r="Q21">
-        <v>7.898036878766001</v>
+        <v>2.471810113348</v>
       </c>
       <c r="R21">
-        <v>71.08233190889401</v>
+        <v>22.246291020132</v>
       </c>
       <c r="S21">
-        <v>0.02806891433102058</v>
+        <v>0.005782005236940103</v>
       </c>
       <c r="T21">
-        <v>0.03404352938713747</v>
+        <v>0.007880025714468612</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,13 +1768,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1783,16 +1783,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.320074</v>
+        <v>0.100172</v>
       </c>
       <c r="H22">
-        <v>0.960222</v>
+        <v>0.300516</v>
       </c>
       <c r="I22">
-        <v>0.04816453535204424</v>
+        <v>0.00950579428766026</v>
       </c>
       <c r="J22">
-        <v>0.05586666546425956</v>
+        <v>0.01223724112588678</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.484750333333333</v>
+        <v>3.075112666666667</v>
       </c>
       <c r="N22">
-        <v>10.454251</v>
+        <v>9.225338000000001</v>
       </c>
       <c r="O22">
-        <v>0.08230024885032761</v>
+        <v>0.07580229267856796</v>
       </c>
       <c r="P22">
-        <v>0.08605670953253641</v>
+        <v>0.08024840132556629</v>
       </c>
       <c r="Q22">
-        <v>1.115377978191333</v>
+        <v>0.3080401860453333</v>
       </c>
       <c r="R22">
-        <v>10.038401803722</v>
+        <v>2.772361674408</v>
       </c>
       <c r="S22">
-        <v>0.003963953245233643</v>
+        <v>0.0007205610007354824</v>
       </c>
       <c r="T22">
-        <v>0.004807701402409169</v>
+        <v>0.0009820190369878867</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.320074</v>
+        <v>0.100172</v>
       </c>
       <c r="H23">
-        <v>0.960222</v>
+        <v>0.300516</v>
       </c>
       <c r="I23">
-        <v>0.04816453535204424</v>
+        <v>0.00950579428766026</v>
       </c>
       <c r="J23">
-        <v>0.05586666546425956</v>
+        <v>0.01223724112588678</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.3744765</v>
+        <v>3.260511</v>
       </c>
       <c r="N23">
-        <v>4.748953</v>
+        <v>6.521022</v>
       </c>
       <c r="O23">
-        <v>0.05607862490749121</v>
+        <v>0.0803724077438757</v>
       </c>
       <c r="P23">
-        <v>0.03909216154315287</v>
+        <v>0.05672438131902018</v>
       </c>
       <c r="Q23">
-        <v>0.7600081912610001</v>
+        <v>0.326611907892</v>
       </c>
       <c r="R23">
-        <v>4.560049147566001</v>
+        <v>1.959671447352</v>
       </c>
       <c r="S23">
-        <v>0.002701000911850889</v>
+        <v>0.0007640035744172349</v>
       </c>
       <c r="T23">
-        <v>0.002183948711206114</v>
+        <v>0.0006941499319175974</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.320074</v>
+        <v>0.100172</v>
       </c>
       <c r="H24">
-        <v>0.960222</v>
+        <v>0.300516</v>
       </c>
       <c r="I24">
-        <v>0.04816453535204424</v>
+        <v>0.00950579428766026</v>
       </c>
       <c r="J24">
-        <v>0.05586666546425956</v>
+        <v>0.01223724112588678</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.786997</v>
+        <v>3.114522666666666</v>
       </c>
       <c r="N24">
-        <v>8.360990999999999</v>
+        <v>9.343567999999999</v>
       </c>
       <c r="O24">
-        <v>0.06582122812388468</v>
+        <v>0.07677375898835379</v>
       </c>
       <c r="P24">
-        <v>0.06882553077127679</v>
+        <v>0.08127684803274619</v>
       </c>
       <c r="Q24">
-        <v>0.8920452777779999</v>
+        <v>0.3119879645653333</v>
       </c>
       <c r="R24">
-        <v>8.028407500001999</v>
+        <v>2.807891681088</v>
       </c>
       <c r="S24">
-        <v>0.003170248868887812</v>
+        <v>0.000729795559633699</v>
       </c>
       <c r="T24">
-        <v>0.003845052902999023</v>
+        <v>0.0009946043873287713</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.320074</v>
+        <v>0.100172</v>
       </c>
       <c r="H25">
-        <v>0.960222</v>
+        <v>0.300516</v>
       </c>
       <c r="I25">
-        <v>0.04816453535204424</v>
+        <v>0.00950579428766026</v>
       </c>
       <c r="J25">
-        <v>0.05586666546425956</v>
+        <v>0.01223724112588678</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.849711</v>
+        <v>2.959395333333333</v>
       </c>
       <c r="N25">
-        <v>17.549133</v>
+        <v>8.878185999999999</v>
       </c>
       <c r="O25">
-        <v>0.1381541358637263</v>
+        <v>0.0729498316079871</v>
       </c>
       <c r="P25">
-        <v>0.1444599561583943</v>
+        <v>0.07722863196676633</v>
       </c>
       <c r="Q25">
-        <v>1.872340398614</v>
+        <v>0.2964485493306667</v>
       </c>
       <c r="R25">
-        <v>16.851063587526</v>
+        <v>2.668036943976</v>
       </c>
       <c r="S25">
-        <v>0.006654129760839568</v>
+        <v>0.0006934460925849816</v>
       </c>
       <c r="T25">
-        <v>0.008070496043682618</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.1954763333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.586429</v>
-      </c>
-      <c r="I26">
-        <v>0.02941515639296324</v>
-      </c>
-      <c r="J26">
-        <v>0.03411901910343678</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>3.1703235</v>
-      </c>
-      <c r="N26">
-        <v>6.340647000000001</v>
-      </c>
-      <c r="O26">
-        <v>0.07487434910048793</v>
-      </c>
-      <c r="P26">
-        <v>0.05219457779685494</v>
-      </c>
-      <c r="Q26">
-        <v>0.6197232132605001</v>
-      </c>
-      <c r="R26">
-        <v>3.718339279563</v>
-      </c>
-      <c r="S26">
-        <v>0.002202440688612179</v>
-      </c>
-      <c r="T26">
-        <v>0.001780827796946711</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.1954763333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.586429</v>
-      </c>
-      <c r="I27">
-        <v>0.02941515639296324</v>
-      </c>
-      <c r="J27">
-        <v>0.03411901910343678</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>24.675659</v>
-      </c>
-      <c r="N27">
-        <v>74.026977</v>
-      </c>
-      <c r="O27">
-        <v>0.5827714131540824</v>
-      </c>
-      <c r="P27">
-        <v>0.6093710641977846</v>
-      </c>
-      <c r="Q27">
-        <v>4.823507343903667</v>
-      </c>
-      <c r="R27">
-        <v>43.411566095133</v>
-      </c>
-      <c r="S27">
-        <v>0.01714231225927553</v>
-      </c>
-      <c r="T27">
-        <v>0.02079114298044581</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.1954763333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.586429</v>
-      </c>
-      <c r="I28">
-        <v>0.02941515639296324</v>
-      </c>
-      <c r="J28">
-        <v>0.03411901910343678</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>3.484750333333333</v>
-      </c>
-      <c r="N28">
-        <v>10.454251</v>
-      </c>
-      <c r="O28">
-        <v>0.08230024885032761</v>
-      </c>
-      <c r="P28">
-        <v>0.08605670953253641</v>
-      </c>
-      <c r="Q28">
-        <v>0.6811862177421111</v>
-      </c>
-      <c r="R28">
-        <v>6.130675959678999</v>
-      </c>
-      <c r="S28">
-        <v>0.00242087469111218</v>
-      </c>
-      <c r="T28">
-        <v>0.00293617051651952</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.1954763333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.586429</v>
-      </c>
-      <c r="I29">
-        <v>0.02941515639296324</v>
-      </c>
-      <c r="J29">
-        <v>0.03411901910343678</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>2.3744765</v>
-      </c>
-      <c r="N29">
-        <v>4.748953</v>
-      </c>
-      <c r="O29">
-        <v>0.05607862490749121</v>
-      </c>
-      <c r="P29">
-        <v>0.03909216154315287</v>
-      </c>
-      <c r="Q29">
-        <v>0.4641539598061667</v>
-      </c>
-      <c r="R29">
-        <v>2.784923758837</v>
-      </c>
-      <c r="S29">
-        <v>0.001649561521956178</v>
-      </c>
-      <c r="T29">
-        <v>0.001333786206485469</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.1954763333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.586429</v>
-      </c>
-      <c r="I30">
-        <v>0.02941515639296324</v>
-      </c>
-      <c r="J30">
-        <v>0.03411901910343678</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>2.786997</v>
-      </c>
-      <c r="N30">
-        <v>8.360990999999999</v>
-      </c>
-      <c r="O30">
-        <v>0.06582122812388468</v>
-      </c>
-      <c r="P30">
-        <v>0.06882553077127679</v>
-      </c>
-      <c r="Q30">
-        <v>0.5447919545709999</v>
-      </c>
-      <c r="R30">
-        <v>4.903127591138999</v>
-      </c>
-      <c r="S30">
-        <v>0.001936141719240978</v>
-      </c>
-      <c r="T30">
-        <v>0.002348259599189369</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.1954763333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.586429</v>
-      </c>
-      <c r="I31">
-        <v>0.02941515639296324</v>
-      </c>
-      <c r="J31">
-        <v>0.03411901910343678</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>5.849711</v>
-      </c>
-      <c r="N31">
-        <v>17.549133</v>
-      </c>
-      <c r="O31">
-        <v>0.1381541358637263</v>
-      </c>
-      <c r="P31">
-        <v>0.1444599561583943</v>
-      </c>
-      <c r="Q31">
-        <v>1.143480057339667</v>
-      </c>
-      <c r="R31">
-        <v>10.291320516057</v>
-      </c>
-      <c r="S31">
-        <v>0.004063825512766201</v>
-      </c>
-      <c r="T31">
-        <v>0.004928832003849895</v>
+        <v>0.000945065391199687</v>
       </c>
     </row>
   </sheetData>
